--- a/src/test/resources/ExcellTestData/ActtiveHealthEnhanced.xlsx
+++ b/src/test/resources/ExcellTestData/ActtiveHealthEnhanced.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RestAssuredProject\Test_UI_ABHI_USP_Portal\src\test\resources\ExcellTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationWorkspace\ABHIProjects\Test_UI_ABHI_USP_Portal\src\test\resources\ExcellTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13657F1-CD80-4C02-9501-20943182963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922BA705-38C3-4830-B026-451BC19610E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="902" activeTab="1" xr2:uid="{4A8686BE-95C4-454A-925F-D28F55B537E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="902" firstSheet="4" activeTab="12" xr2:uid="{4A8686BE-95C4-454A-925F-D28F55B537E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Details" sheetId="13" r:id="rId1"/>
     <sheet name="Insured Details" sheetId="1" r:id="rId2"/>
-    <sheet name="Relation" sheetId="12" r:id="rId3"/>
+    <sheet name="Insured Member Details" sheetId="12" r:id="rId3"/>
     <sheet name="Total Premium" sheetId="2" r:id="rId4"/>
     <sheet name="Lead Creation" sheetId="3" r:id="rId5"/>
     <sheet name="Proposer Details" sheetId="4" r:id="rId6"/>
@@ -26,7 +26,6 @@
     <sheet name="Declaration" sheetId="9" r:id="rId11"/>
     <sheet name="Payment Details" sheetId="10" r:id="rId12"/>
     <sheet name="Thank You" sheetId="11" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -302,10 +299,132 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>SAIDACHARY</author>
     <author>Monocept</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{76CC79B0-48C4-4D5C-90B2-C2B24FFCFE14}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{3D23F584-8A03-400E-9D41-EF95835352B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{A615D57B-B502-4E35-A804-B7D7FF319D35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{14C37D36-EA92-4EC5-AA09-71FD3E585B4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{4FDA1CE3-2891-48D4-AF27-1C800630F062}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Radio Button</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{4A5A3F72-11F9-4DD4-80D4-4EB7851118D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Radio Button</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{76CC79B0-48C4-4D5C-90B2-C2B24FFCFE14}">
       <text>
         <r>
           <rPr>
@@ -367,8 +486,328 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SAIDACHARY</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{411B3A8C-106B-4EB5-BE55-F69F050D8253}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D1B49925-2324-4C28-9FEE-DF517B592A30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E96E5752-6BD7-4B16-B967-FCF5DAC8CE5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{1ABDB41C-A9B1-4292-8842-F7B2D7AC9618}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{CFF50BA3-3C2C-4979-B679-CD32AAF8104D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{BEFEF076-FA0C-4FD2-BB9F-6B6C7EF50CBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SAIDACHARY</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2B442921-8B68-4F51-81A1-D92B3243067D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SAIDACHARY</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FAA53EE1-061F-4DE2-8C02-782179965BD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{487F27F6-A9FE-421E-9AA8-82DC06476549}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{497581AC-6A73-43CE-96A9-54D8BADFC68F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{37ED87A1-95AF-412A-B322-36C80B304E75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>SAIDACHARY</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0BDBD6D9-32C7-4A3B-86B9-18E1CD69E4D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SAIDACHARY:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drop Down</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="169">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -427,9 +866,6 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Spous</t>
-  </si>
-  <si>
     <t>10-10-1992</t>
   </si>
   <si>
@@ -439,15 +875,6 @@
     <t>600000</t>
   </si>
   <si>
-    <t>One year</t>
-  </si>
-  <si>
-    <t>Two Year</t>
-  </si>
-  <si>
-    <t>Third Year</t>
-  </si>
-  <si>
     <t>Test Case Discription</t>
   </si>
   <si>
@@ -515,13 +942,407 @@
   </si>
   <si>
     <t>Self,Spouse</t>
+  </si>
+  <si>
+    <t>1 year</t>
+  </si>
+  <si>
+    <t>2 year</t>
+  </si>
+  <si>
+    <t>3 year</t>
+  </si>
+  <si>
+    <t>Note: Need to write the data here</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Proposer Salutation</t>
+  </si>
+  <si>
+    <t>Correspondence Address 1</t>
+  </si>
+  <si>
+    <t>Correspondence Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Annual Income</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Std. Code</t>
+  </si>
+  <si>
+    <t>Contact No.</t>
+  </si>
+  <si>
+    <t>WhatsApp Number</t>
+  </si>
+  <si>
+    <t>GST Type</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>PAN Card Number</t>
+  </si>
+  <si>
+    <t>UPI Handle</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>PEP(Politically Exposed Person)</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>For this page data we have maintained in Insured member details sheet</t>
+  </si>
+  <si>
+    <t>Height(In Feet)</t>
+  </si>
+  <si>
+    <t>Height(In Inches)</t>
+  </si>
+  <si>
+    <t>Weight(In Kgs)</t>
+  </si>
+  <si>
+    <t>ABHA Number</t>
+  </si>
+  <si>
+    <t>ABHA Address</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Nature of Work</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>saida</t>
+  </si>
+  <si>
+    <t>chary</t>
+  </si>
+  <si>
+    <t>mothkuri</t>
+  </si>
+  <si>
+    <t>chary@yopmail.com</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>motj</t>
+  </si>
+  <si>
+    <t>ram@yopmail.com</t>
+  </si>
+  <si>
+    <t>paparao</t>
+  </si>
+  <si>
+    <t>lop</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>papa@yopmail.com</t>
+  </si>
+  <si>
+    <t>tara</t>
+  </si>
+  <si>
+    <t>tay</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>Tara@yopmail.com</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>5L to 10L</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
+    <t>Consumers</t>
+  </si>
+  <si>
+    <t>Adhaar Card</t>
+  </si>
+  <si>
+    <t>CHGMP3111H</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>selfj@yopmai.com</t>
+  </si>
+  <si>
+    <t>Key Points</t>
+  </si>
+  <si>
+    <t>Sheets Names same has application page name.</t>
+  </si>
+  <si>
+    <t>Each Sheet column header name should be attribute value of Web element. Bases on that we are sending the data into text field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: </t>
+  </si>
+  <si>
+    <t>Need to follow below key points to work with Excel Sheet.</t>
+  </si>
+  <si>
+    <r>
+      <t>Each Sheet Should have "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TestCaseID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" has main column bases on that we are picking the test Case.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ap #756-605 Sapien, St.</t>
+  </si>
+  <si>
+    <t>P.O. Box 862, 9806 Tempus Street</t>
+  </si>
+  <si>
+    <t>Ap #835-7819 Arcu. Avenue</t>
+  </si>
+  <si>
+    <t>P.O. Box 595, 1190 Penatibus St.</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Singapur</t>
+  </si>
+  <si>
+    <t>vangala</t>
+  </si>
+  <si>
+    <t>sushma</t>
+  </si>
+  <si>
+    <t>sushma@yopmail.com</t>
+  </si>
+  <si>
+    <t>sushma@yopmai.com</t>
+  </si>
+  <si>
+    <t>Note: Here we no need to entere any data</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>Nominee First Name</t>
+  </si>
+  <si>
+    <t>Nominee Middle Name</t>
+  </si>
+  <si>
+    <t>Nominee Last Name</t>
+  </si>
+  <si>
+    <t>Nominee Relation with Proposer</t>
+  </si>
+  <si>
+    <t>Nominee Contact No.</t>
+  </si>
+  <si>
+    <t>Do you have an assignee for this policy?</t>
+  </si>
+  <si>
+    <t>Do you have Previous/Current policy for life,health,hospital daily cash or critical illness insurance?</t>
+  </si>
+  <si>
+    <t>Account No.</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Bank City</t>
+  </si>
+  <si>
+    <t>Bank Branch</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>MICR Code</t>
+  </si>
+  <si>
+    <t>Note : Data not required</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Payment Option</t>
+  </si>
+  <si>
+    <t>Cheque Amount</t>
+  </si>
+  <si>
+    <t>Cheque Number</t>
+  </si>
+  <si>
+    <t>Cheque Date</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Policy Number:</t>
+  </si>
+  <si>
+    <t>Recept Id:</t>
+  </si>
+  <si>
+    <t>Application No.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Narayana</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>Kukatpally</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>10-102024</t>
+  </si>
+  <si>
+    <t>Self,Spouse,Son</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +1397,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,12 +1443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +1461,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,25 +1507,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -669,23 +1531,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1018,91 +1921,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34DC4F1-33AB-45D0-A24D-3982A1AE9FD9}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="104.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1111,67 +2044,341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888D5AB9-EA5E-4607-883C-29DFFEE250F1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888D5AB9-EA5E-4607-883C-29DFFEE250F1}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1234567</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BF4273-EAF7-4068-8EE5-244C08DA764C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G13" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7440F0DF-C88C-4EFD-ACC0-C91AA6C5C8DD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7440F0DF-C88C-4EFD-ACC0-C91AA6C5C8DD}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6C6194-8BFB-4983-975F-F9B04105AE3F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678AE53C-703D-4408-8AFA-000BDC1897AD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1180,191 +2387,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC78695-EDE0-4607-A01A-4FA2B39E3D3E}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="10.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9">
+        <v>508217</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9">
+        <v>508217</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14" t="s">
+      <c r="J4" s="9">
+        <v>508217</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="H5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="9">
         <v>508217</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="14">
-        <v>508217</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="14">
-        <v>508217</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="14">
-        <v>508217</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1376,116 +2584,278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBFC91A-96AB-4D28-967E-6DFB8A8FD689}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="32">
+        <v>30</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9">
+        <v>508217</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="9">
+        <v>5</v>
+      </c>
+      <c r="M2" s="9">
+        <v>6</v>
+      </c>
+      <c r="N2" s="9">
+        <v>70</v>
+      </c>
+      <c r="O2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="34">
+        <v>34252</v>
+      </c>
+      <c r="C3" s="32">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E3" s="9">
+        <v>600000</v>
+      </c>
+      <c r="F3" s="9">
         <v>508217</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7">
-        <v>34252</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3">
-        <v>600000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>508217</v>
-      </c>
+      <c r="G3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9010100822</v>
+      </c>
+      <c r="L3" s="9">
+        <v>6</v>
+      </c>
+      <c r="M3" s="9">
+        <v>7</v>
+      </c>
+      <c r="N3" s="9">
+        <v>80</v>
+      </c>
+      <c r="O3" s="9">
+        <v>123456000</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{5F16EB2B-55BC-4C01-86F3-597C8C092759}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{22E8EA2C-9484-47CE-BD1B-AD184C7EDDA6}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{3B343B07-6029-47C7-AC74-CE6ED97064A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B20B4A8-BEA9-4E38-B1D2-658D3F7B56FB}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="G3" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,68 +2865,660 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4D8952-0935-4BBE-877A-40B27977389E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9010100822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9867483922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9867483922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9867483922</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00F1E5EA-28A5-47E3-8D69-0148EC81A207}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{575DC53D-9687-48A3-A407-37A52ACEF779}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{335CDE8F-B42A-4DF3-BF09-9345F5CD0D86}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{4AF8EAF8-D564-496B-ADE0-086412D207F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF334D-CC95-4222-A81D-DF71E66DD6D5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF334D-CC95-4222-A81D-DF71E66DD6D5}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView topLeftCell="M1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="2">
+        <v>91</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="2">
+        <v>91</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="2">
+        <v>91</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9098765456</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="2">
+        <v>9876545678</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1234</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="2">
+        <v>91</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C9764D-E6D8-458F-BB34-F2BC7529C1CF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="58.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D44DD9-0A72-45AC-BAE7-C49797E4279E}">
-  <dimension ref="A1"/>
+  <dimension ref="M1:S6"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="S6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF7D68-CB37-406A-B7DE-FDFABE0BC435}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF7D68-CB37-406A-B7DE-FDFABE0BC435}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9867543678</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>